--- a/doc5/UE-源码问题整理.xlsx
+++ b/doc5/UE-源码问题整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C821B1-D971-4051-A7CD-6AF7C070E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7226D4-922E-43A6-A444-CC37B8350319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>具体发生在：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>这两个事件的清除，仅仅发生在每次TICK调用，判断是否处于Playing状态，如不在才清除（这样就产生了切换切换时的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！主要是在MediaModule-&gt;GetClock()里面存的是weakptr弱指针，这样子会导致场景切换时原数据删除，该弱指针失效而不会执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,72 +462,75 @@
   <dimension ref="B2:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>3</v>
       </c>

--- a/doc5/UE-源码问题整理.xlsx
+++ b/doc5/UE-源码问题整理.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7226D4-922E-43A6-A444-CC37B8350319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4284E-C8B9-4BFB-B342-CEEC958B2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MediaPlayer视频播放问题" sheetId="1" r:id="rId1"/>
+    <sheet name="前后台切换时加载资源报错" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>具体发生在：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,20 @@
   <si>
     <t>！！！主要是在MediaModule-&gt;GetClock()里面存的是weakptr弱指针，这样子会导致场景切换时原数据删除，该弱指针失效而不会执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要在IOS下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后台切换的时候，LoadingThread时挂起状态，如果这个时候我们的程序监听了回调，然后同步加载资源或者UI，就会崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
+  </si>
+  <si>
+    <t>UE_CLOG(IsAsyncLoadingSuspendedInternal(), LogStreaming, Fatal, TEXT("Cannot Flush Async Loading while async loading is suspended (%d)"), GetAsyncLoadingSuspendedCount());</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -654,4 +669,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B06B950-9807-41A8-AA91-0036B3E62B99}">
+  <dimension ref="B3:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc5/UE-源码问题整理.xlsx
+++ b/doc5/UE-源码问题整理.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4284E-C8B9-4BFB-B342-CEEC958B2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C3787D-1005-4C41-A338-0F5BD9AA5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MediaPlayer视频播放问题" sheetId="1" r:id="rId1"/>
     <sheet name="前后台切换时加载资源报错" sheetId="2" r:id="rId2"/>
+    <sheet name="过场动画遇到GC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>具体发生在：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,40 @@
   </si>
   <si>
     <t>UE_CLOG(IsAsyncLoadingSuspendedInternal(), LogStreaming, Fatal, TEXT("Cannot Flush Async Loading while async loading is suspended (%d)"), GetAsyncLoadingSuspendedCount());</t>
+  </si>
+  <si>
+    <t>UObject* FMovieSceneObjectPathChannelKeyValue::Get() const</t>
+  </si>
+  <si>
+    <t>if (!HardPtr &amp;&amp; !SoftPtr.IsNull())</t>
+  </si>
+  <si>
+    <t>UObject* ResolvedPtr = SoftPtr.Get();</t>
+  </si>
+  <si>
+    <t>if (!ResolvedPtr)</t>
+  </si>
+  <si>
+    <t>ResolvedPtr = SoftPtr.LoadSynchronous();</t>
+  </si>
+  <si>
+    <t>// Do not store raw ptrs to actors or other objects that exist in worlds</t>
+  </si>
+  <si>
+    <t>if (ResolvedPtr &amp;&amp; !ResolvedPtr-&gt;GetTypedOuter&lt;UWorld&gt;())</t>
+  </si>
+  <si>
+    <t>HardPtr = ResolvedPtr;</t>
+  </si>
+  <si>
+    <t>return ResolvedPtr;</t>
+  </si>
+  <si>
+    <t>return HardPtr;</t>
+  </si>
+  <si>
+    <t>存在脏指针问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B06B950-9807-41A8-AA91-0036B3E62B99}">
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -706,4 +741,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC61E4E1-1F62-4AC1-B044-C74ABFEFAA31}">
+  <dimension ref="B3:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>